--- a/data/trans_orig/P1434-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>73389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58632</v>
+        <v>58628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90916</v>
+        <v>90818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07113200763762459</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05682930835513341</v>
+        <v>0.05682506645368786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08812062609304123</v>
+        <v>0.0880257256823046</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>958334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>940807</v>
+        <v>940905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>973091</v>
+        <v>973095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9288679923623754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9118793739069585</v>
+        <v>0.9119742743176954</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9431706916448663</v>
+        <v>0.9431749335463123</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>20985</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13349</v>
+        <v>12868</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31845</v>
+        <v>32174</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01239218488069671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007882947737769371</v>
+        <v>0.007598834352045204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0188051179670487</v>
+        <v>0.01899922605229684</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>1672428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1661568</v>
+        <v>1661239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1680064</v>
+        <v>1680545</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9876078151193033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9811948820329514</v>
+        <v>0.9810007739477031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921170522622307</v>
+        <v>0.9924011656479548</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>11814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5761</v>
+        <v>6168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21110</v>
+        <v>22553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02142506135668675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01044772842513945</v>
+        <v>0.01118638781330826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.038283041953067</v>
+        <v>0.04090107135673861</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>539594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530298</v>
+        <v>528855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545647</v>
+        <v>545240</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9785749386433132</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9617169580469334</v>
+        <v>0.9590989286432604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9895522715748606</v>
+        <v>0.9888136121866916</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>106188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03240840611078726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>3170355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3149655</v>
+        <v>3149117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3188699</v>
+        <v>3188201</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9675915938892128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.96127392202908</v>
+        <v>0.9611096533070123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9731900495822763</v>
+        <v>0.9730381163146854</v>
       </c>
     </row>
     <row r="15">
@@ -1105,19 +1105,19 @@
         <v>73873</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57848</v>
+        <v>58968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92625</v>
+        <v>93893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.075965488527812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05948689767505745</v>
+        <v>0.06063872721108666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09524945514797892</v>
+        <v>0.09655296977777499</v>
       </c>
     </row>
     <row r="5">
@@ -1134,19 +1134,19 @@
         <v>898578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>879826</v>
+        <v>878558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>914603</v>
+        <v>913483</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.924034511472188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9047505448520211</v>
+        <v>0.9034470302222252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9405131023249425</v>
+        <v>0.9393612727889135</v>
       </c>
     </row>
     <row r="6">
@@ -1196,19 +1196,19 @@
         <v>40010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29626</v>
+        <v>28785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53590</v>
+        <v>54731</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02037217595414675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0150849149251862</v>
+        <v>0.01465659453138102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02728658183114464</v>
+        <v>0.02786770389413946</v>
       </c>
     </row>
     <row r="8">
@@ -1225,19 +1225,19 @@
         <v>1923947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1910367</v>
+        <v>1909226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1934331</v>
+        <v>1935172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9796278240458532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9727134181688554</v>
+        <v>0.9721322961058605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9849150850748137</v>
+        <v>0.9853434054686185</v>
       </c>
     </row>
     <row r="9">
@@ -1287,19 +1287,19 @@
         <v>10526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4284</v>
+        <v>4260</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23246</v>
+        <v>22206</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02187560974010465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008902357673755006</v>
+        <v>0.008853119899607641</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04831076809051411</v>
+        <v>0.04614844263962323</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1316,19 @@
         <v>470655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>457935</v>
+        <v>458975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>476897</v>
+        <v>476921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9781243902598954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9516892319094856</v>
+        <v>0.953851557360377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.991097642326245</v>
+        <v>0.9911468801003924</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>124409</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103084</v>
+        <v>101753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148320</v>
+        <v>151045</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03640254191984783</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03016274964078629</v>
+        <v>0.02977320100826899</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04339891166245902</v>
+        <v>0.04419626735974533</v>
       </c>
     </row>
     <row r="14">
@@ -1407,19 +1407,19 @@
         <v>3293181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3269270</v>
+        <v>3266545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3314506</v>
+        <v>3315837</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9635974580801522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.956601088337541</v>
+        <v>0.9558037326402548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9698372503592138</v>
+        <v>0.970226798991731</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>61600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47728</v>
+        <v>47688</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76779</v>
+        <v>76422</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08166005009520114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06327043091932315</v>
+        <v>0.06321809465147533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1017821920082014</v>
+        <v>0.1013092838635821</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1615,19 @@
         <v>692747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677568</v>
+        <v>677925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>706619</v>
+        <v>706659</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9183399499047988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8982178079917985</v>
+        <v>0.8986907161364177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9367295690806767</v>
+        <v>0.9367819053485246</v>
       </c>
     </row>
     <row r="6">
@@ -1677,19 +1677,19 @@
         <v>39615</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28367</v>
+        <v>27906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53927</v>
+        <v>53411</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01907883212124657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01366169876893666</v>
+        <v>0.0134396846715677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02597141311277506</v>
+        <v>0.02572323684892161</v>
       </c>
     </row>
     <row r="8">
@@ -1706,19 +1706,19 @@
         <v>2036770</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2022458</v>
+        <v>2022974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2048018</v>
+        <v>2048479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9809211678787534</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9740285868872245</v>
+        <v>0.9742767631510784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9863383012310629</v>
+        <v>0.9865603153284322</v>
       </c>
     </row>
     <row r="9">
@@ -1768,19 +1768,19 @@
         <v>7787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2962</v>
+        <v>3334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16896</v>
+        <v>16484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01423952930244584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005415425484536579</v>
+        <v>0.006096805518674765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03089420304888856</v>
+        <v>0.03014186291110749</v>
       </c>
     </row>
     <row r="11">
@@ -1797,19 +1797,19 @@
         <v>539099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529990</v>
+        <v>530402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543924</v>
+        <v>543552</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9857604706975541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9691057969511114</v>
+        <v>0.9698581370888926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9945845745154634</v>
+        <v>0.9939031944813252</v>
       </c>
     </row>
     <row r="12">
@@ -1859,19 +1859,19 @@
         <v>109002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91136</v>
+        <v>90773</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132318</v>
+        <v>132005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03227197407344468</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02698240523241645</v>
+        <v>0.0268748586770983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03917486330257497</v>
+        <v>0.03908237325175844</v>
       </c>
     </row>
     <row r="14">
@@ -1888,19 +1888,19 @@
         <v>3268616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3245300</v>
+        <v>3245613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3286482</v>
+        <v>3286845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9677280259265553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9608251366974251</v>
+        <v>0.9609176267482414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9730175947675835</v>
+        <v>0.9731251413229016</v>
       </c>
     </row>
     <row r="15">
@@ -2067,19 +2067,19 @@
         <v>75754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61402</v>
+        <v>61524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89344</v>
+        <v>90508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1317300231818414</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1067737636285261</v>
+        <v>0.1069858518302822</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1553625294693686</v>
+        <v>0.1573868457717634</v>
       </c>
     </row>
     <row r="5">
@@ -2096,19 +2096,19 @@
         <v>499315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>485725</v>
+        <v>484561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>513667</v>
+        <v>513545</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8682699768181588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8446374705306312</v>
+        <v>0.8426131542282367</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8932262363714738</v>
+        <v>0.8930141481697181</v>
       </c>
     </row>
     <row r="6">
@@ -2158,19 +2158,19 @@
         <v>83996</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68943</v>
+        <v>68872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100348</v>
+        <v>102273</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0378613361743288</v>
+        <v>0.03786133617432881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03107641513202989</v>
+        <v>0.0310443239681936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04523237578720608</v>
+        <v>0.04610016796526</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2187,19 @@
         <v>2134508</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2118156</v>
+        <v>2116231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2149561</v>
+        <v>2149632</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.962138663825671</v>
+        <v>0.9621386638256713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9547676242127937</v>
+        <v>0.9538998320347396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.96892358486797</v>
+        <v>0.9689556760318063</v>
       </c>
     </row>
     <row r="9">
@@ -2249,19 +2249,19 @@
         <v>32717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23988</v>
+        <v>23388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44248</v>
+        <v>43153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04630187784830638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03394838407547689</v>
+        <v>0.03309910817832149</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06262096586304733</v>
+        <v>0.06107010162574621</v>
       </c>
     </row>
     <row r="11">
@@ -2278,19 +2278,19 @@
         <v>673891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>662360</v>
+        <v>663455</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>682620</v>
+        <v>683220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9536981221516937</v>
+        <v>0.9536981221516935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9373790341369524</v>
+        <v>0.9389298983742538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9660516159245229</v>
+        <v>0.9669008918216786</v>
       </c>
     </row>
     <row r="12">
@@ -2340,19 +2340,19 @@
         <v>192467</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170881</v>
+        <v>171242</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219881</v>
+        <v>218088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05498762282528526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04882062655623493</v>
+        <v>0.04892376638074574</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06281987581602021</v>
+        <v>0.06230767318232894</v>
       </c>
     </row>
     <row r="14">
@@ -2369,19 +2369,19 @@
         <v>3307714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3280300</v>
+        <v>3282093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3329300</v>
+        <v>3328939</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9450123771747148</v>
+        <v>0.9450123771747149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9371801241839798</v>
+        <v>0.937692326817671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9511793734437651</v>
+        <v>0.9510762336192543</v>
       </c>
     </row>
     <row r="15">
